--- a/Server/Server/GameData/Mission.xlsx
+++ b/Server/Server/GameData/Mission.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BA5F45-FE3C-4045-B166-5F3D2C6C13F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CE86437-CA80-4D5C-8542-38603D56E73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{942E84F1-7C83-4D17-AAF4-8F7F0F7012B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Info_Mission" sheetId="2" r:id="rId1"/>
-    <sheet name="Element_Index" sheetId="3" r:id="rId2"/>
-    <sheet name="Mission" sheetId="4" r:id="rId3"/>
+    <sheet name="Type_Mission" sheetId="3" r:id="rId2"/>
+    <sheet name="List_Mission" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,14 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Element1_Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element1_Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그로기 카운트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +354,30 @@
   </si>
   <si>
     <t>첫 번째 킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Mission_Index1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index1_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Mission_Index2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index2_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_Mission_Index3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index3_Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,14 +485,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -485,25 +498,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -861,282 +868,282 @@
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1160,11 +1167,11 @@
     <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1172,7 +1179,7 @@
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1180,7 +1187,7 @@
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1188,7 +1195,7 @@
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1196,7 +1203,7 @@
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1204,15 +1211,15 @@
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1220,7 +1227,7 @@
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1228,7 +1235,7 @@
       <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1236,7 +1243,7 @@
       <c r="A10">
         <v>1009</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1244,7 +1251,7 @@
       <c r="A11">
         <v>1010</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1252,7 +1259,7 @@
       <c r="A12">
         <v>1011</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1260,7 +1267,7 @@
       <c r="A13">
         <v>2001</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1268,7 +1275,7 @@
       <c r="A14">
         <v>2002</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1276,7 +1283,7 @@
       <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1284,7 +1291,7 @@
       <c r="A16">
         <v>2004</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1292,7 +1299,7 @@
       <c r="A17">
         <v>2005</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1300,7 +1307,7 @@
       <c r="A18">
         <v>2006</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1312,93 +1319,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC4C65-A68F-4D18-8687-F32D803F876E}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="L1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="N1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="O1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>11001</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2">
+        <v>1001</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>20241105</v>
-      </c>
       <c r="F2">
-        <v>99990101</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>20241105</v>
+      </c>
+      <c r="L2">
+        <v>99990101</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>100001</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>300</v>
-      </c>
-      <c r="J2">
-        <v>1001</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
